--- a/data/Laporan/06-19-2023/Laporan.xlsx
+++ b/data/Laporan/06-19-2023/Laporan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROJECT\RPA\SoftwareIntegrationEcommerce\data\Laporan\06-19-2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B42A396-F6E3-459B-B703-782DE360AEBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{358EED8D-CCE9-4D67-BC97-5B3D1BA5DFA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="79">
   <si>
     <t>no_invoice</t>
   </si>
@@ -200,9 +200,6 @@
   </si>
   <si>
     <t>Jual Poster Blackpink all Member Karakter All in one Full Print A4 - bp-2</t>
-  </si>
-  <si>
-    <t>Non Tunai</t>
   </si>
   <si>
     <t>J&amp;T(Reguler)</t>
@@ -638,7 +635,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{608A1F2F-CF5B-4B87-BA46-BD17BC1DC7C1}">
-  <dimension ref="A1:Q47"/>
+  <dimension ref="A1:Q48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
@@ -2136,14 +2133,14 @@
       <c r="M28">
         <v>0</v>
       </c>
-      <c r="N28" t="s">
+      <c r="N28">
+        <v>0</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28" t="s">
         <v>60</v>
-      </c>
-      <c r="O28" t="s">
-        <v>60</v>
-      </c>
-      <c r="P28" t="s">
-        <v>61</v>
       </c>
       <c r="Q28">
         <v>4099</v>
@@ -2163,7 +2160,7 @@
         <v>44991</v>
       </c>
       <c r="E29" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F29">
         <v>1</v>
@@ -2189,14 +2186,14 @@
       <c r="M29">
         <v>0</v>
       </c>
-      <c r="N29" t="s">
+      <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29" t="s">
         <v>60</v>
-      </c>
-      <c r="O29" t="s">
-        <v>60</v>
-      </c>
-      <c r="P29" t="s">
-        <v>61</v>
       </c>
       <c r="Q29">
         <v>4099</v>
@@ -2204,19 +2201,19 @@
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B30" t="s">
         <v>57</v>
       </c>
       <c r="C30" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D30" s="1">
         <v>45083</v>
       </c>
       <c r="E30" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F30">
         <v>2</v>
@@ -2242,14 +2239,14 @@
       <c r="M30">
         <v>0</v>
       </c>
-      <c r="N30" t="s">
+      <c r="N30">
+        <v>0</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30" t="s">
         <v>60</v>
-      </c>
-      <c r="O30" t="s">
-        <v>60</v>
-      </c>
-      <c r="P30" t="s">
-        <v>61</v>
       </c>
       <c r="Q30">
         <v>3998</v>
@@ -2257,19 +2254,19 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B31" t="s">
         <v>57</v>
       </c>
       <c r="C31" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D31" s="1">
         <v>45144</v>
       </c>
       <c r="E31" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F31">
         <v>1</v>
@@ -2295,14 +2292,14 @@
       <c r="M31">
         <v>0</v>
       </c>
-      <c r="N31" t="s">
+      <c r="N31">
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31" t="s">
         <v>60</v>
-      </c>
-      <c r="O31" t="s">
-        <v>60</v>
-      </c>
-      <c r="P31" t="s">
-        <v>61</v>
       </c>
       <c r="Q31">
         <v>1999</v>
@@ -2310,19 +2307,19 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B32" t="s">
         <v>57</v>
       </c>
       <c r="C32" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D32" s="1">
         <v>45144</v>
       </c>
       <c r="E32" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F32">
         <v>1</v>
@@ -2348,14 +2345,14 @@
       <c r="M32">
         <v>0</v>
       </c>
-      <c r="N32" t="s">
+      <c r="N32">
+        <v>0</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32" t="s">
         <v>60</v>
-      </c>
-      <c r="O32" t="s">
-        <v>60</v>
-      </c>
-      <c r="P32" t="s">
-        <v>61</v>
       </c>
       <c r="Q32">
         <v>1999</v>
@@ -2363,19 +2360,19 @@
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B33" t="s">
         <v>57</v>
       </c>
       <c r="C33" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D33" s="1">
         <v>45144</v>
       </c>
       <c r="E33" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F33">
         <v>1</v>
@@ -2401,14 +2398,14 @@
       <c r="M33">
         <v>0</v>
       </c>
-      <c r="N33" t="s">
+      <c r="N33">
+        <v>0</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33" t="s">
         <v>60</v>
-      </c>
-      <c r="O33" t="s">
-        <v>60</v>
-      </c>
-      <c r="P33" t="s">
-        <v>61</v>
       </c>
       <c r="Q33">
         <v>1999</v>
@@ -2416,19 +2413,19 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B34" t="s">
         <v>57</v>
       </c>
       <c r="C34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D34" s="1">
         <v>45144</v>
       </c>
       <c r="E34" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F34">
         <v>1</v>
@@ -2454,14 +2451,14 @@
       <c r="M34">
         <v>0</v>
       </c>
-      <c r="N34" t="s">
+      <c r="N34">
+        <v>0</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34" t="s">
         <v>60</v>
-      </c>
-      <c r="O34" t="s">
-        <v>60</v>
-      </c>
-      <c r="P34" t="s">
-        <v>61</v>
       </c>
       <c r="Q34">
         <v>1999</v>
@@ -2469,13 +2466,13 @@
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B35" t="s">
         <v>57</v>
       </c>
       <c r="C35" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D35" s="1">
         <v>45175</v>
@@ -2507,14 +2504,14 @@
       <c r="M35">
         <v>0</v>
       </c>
-      <c r="N35" t="s">
+      <c r="N35">
+        <v>0</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35" t="s">
         <v>60</v>
-      </c>
-      <c r="O35" t="s">
-        <v>60</v>
-      </c>
-      <c r="P35" t="s">
-        <v>61</v>
       </c>
       <c r="Q35">
         <v>1999</v>
@@ -2522,19 +2519,19 @@
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B36" t="s">
         <v>57</v>
       </c>
       <c r="C36" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D36" s="1">
         <v>45175</v>
       </c>
       <c r="E36" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F36">
         <v>1</v>
@@ -2560,14 +2557,14 @@
       <c r="M36">
         <v>0</v>
       </c>
-      <c r="N36" t="s">
+      <c r="N36">
+        <v>0</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36" t="s">
         <v>60</v>
-      </c>
-      <c r="O36" t="s">
-        <v>60</v>
-      </c>
-      <c r="P36" t="s">
-        <v>61</v>
       </c>
       <c r="Q36">
         <v>1999</v>
@@ -2575,13 +2572,13 @@
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B37" t="s">
         <v>57</v>
       </c>
       <c r="C37" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D37" s="1">
         <v>45144</v>
@@ -2613,14 +2610,14 @@
       <c r="M37">
         <v>0</v>
       </c>
-      <c r="N37" t="s">
+      <c r="N37">
+        <v>0</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37" t="s">
         <v>60</v>
-      </c>
-      <c r="O37" t="s">
-        <v>60</v>
-      </c>
-      <c r="P37" t="s">
-        <v>61</v>
       </c>
       <c r="Q37">
         <v>1999</v>
@@ -2628,19 +2625,19 @@
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B38" t="s">
         <v>57</v>
       </c>
       <c r="C38" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D38" s="1">
         <v>45144</v>
       </c>
       <c r="E38" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F38">
         <v>1</v>
@@ -2666,14 +2663,14 @@
       <c r="M38">
         <v>0</v>
       </c>
-      <c r="N38" t="s">
+      <c r="N38">
+        <v>0</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38" t="s">
         <v>60</v>
-      </c>
-      <c r="O38" t="s">
-        <v>60</v>
-      </c>
-      <c r="P38" t="s">
-        <v>61</v>
       </c>
       <c r="Q38">
         <v>1999</v>
@@ -2681,19 +2678,19 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B39" t="s">
         <v>57</v>
       </c>
       <c r="C39" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D39" s="1">
         <v>45144</v>
       </c>
       <c r="E39" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F39">
         <v>1</v>
@@ -2719,14 +2716,14 @@
       <c r="M39">
         <v>0</v>
       </c>
-      <c r="N39" t="s">
+      <c r="N39">
+        <v>0</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39" t="s">
         <v>60</v>
-      </c>
-      <c r="O39" t="s">
-        <v>60</v>
-      </c>
-      <c r="P39" t="s">
-        <v>61</v>
       </c>
       <c r="Q39">
         <v>1999</v>
@@ -2734,19 +2731,19 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B40" t="s">
         <v>57</v>
       </c>
       <c r="C40" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D40" s="1">
         <v>45144</v>
       </c>
       <c r="E40" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F40">
         <v>1</v>
@@ -2772,14 +2769,14 @@
       <c r="M40">
         <v>0</v>
       </c>
-      <c r="N40" t="s">
+      <c r="N40">
+        <v>0</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40" t="s">
         <v>60</v>
-      </c>
-      <c r="O40" t="s">
-        <v>60</v>
-      </c>
-      <c r="P40" t="s">
-        <v>61</v>
       </c>
       <c r="Q40">
         <v>1999</v>
@@ -2787,13 +2784,13 @@
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B41" t="s">
         <v>57</v>
       </c>
       <c r="C41" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D41" s="1">
         <v>45266</v>
@@ -2825,14 +2822,14 @@
       <c r="M41">
         <v>0</v>
       </c>
-      <c r="N41" t="s">
+      <c r="N41">
+        <v>0</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41" t="s">
         <v>60</v>
-      </c>
-      <c r="O41" t="s">
-        <v>60</v>
-      </c>
-      <c r="P41" t="s">
-        <v>61</v>
       </c>
       <c r="Q41">
         <v>1999</v>
@@ -2840,19 +2837,19 @@
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B42" t="s">
         <v>57</v>
       </c>
       <c r="C42" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D42" s="1">
         <v>45266</v>
       </c>
       <c r="E42" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F42">
         <v>1</v>
@@ -2878,14 +2875,14 @@
       <c r="M42">
         <v>0</v>
       </c>
-      <c r="N42" t="s">
+      <c r="N42">
+        <v>0</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42" t="s">
         <v>60</v>
-      </c>
-      <c r="O42" t="s">
-        <v>60</v>
-      </c>
-      <c r="P42" t="s">
-        <v>61</v>
       </c>
       <c r="Q42">
         <v>1999</v>
@@ -2893,19 +2890,19 @@
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B43" t="s">
         <v>57</v>
       </c>
       <c r="C43" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D43" s="1">
         <v>45266</v>
       </c>
       <c r="E43" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F43">
         <v>1</v>
@@ -2931,14 +2928,14 @@
       <c r="M43">
         <v>0</v>
       </c>
-      <c r="N43" t="s">
+      <c r="N43">
+        <v>0</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+      <c r="P43" t="s">
         <v>60</v>
-      </c>
-      <c r="O43" t="s">
-        <v>60</v>
-      </c>
-      <c r="P43" t="s">
-        <v>61</v>
       </c>
       <c r="Q43">
         <v>1999</v>
@@ -2946,19 +2943,19 @@
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B44" t="s">
         <v>57</v>
       </c>
       <c r="C44" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D44" s="1">
         <v>45266</v>
       </c>
       <c r="E44" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F44">
         <v>1</v>
@@ -2984,14 +2981,14 @@
       <c r="M44">
         <v>0</v>
       </c>
-      <c r="N44" t="s">
+      <c r="N44">
+        <v>0</v>
+      </c>
+      <c r="O44">
+        <v>0</v>
+      </c>
+      <c r="P44" t="s">
         <v>60</v>
-      </c>
-      <c r="O44" t="s">
-        <v>60</v>
-      </c>
-      <c r="P44" t="s">
-        <v>61</v>
       </c>
       <c r="Q44">
         <v>1999</v>
@@ -2999,13 +2996,13 @@
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B45" t="s">
         <v>57</v>
       </c>
       <c r="C45" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D45" s="1">
         <v>45266</v>
@@ -3037,14 +3034,14 @@
       <c r="M45">
         <v>0</v>
       </c>
-      <c r="N45" t="s">
+      <c r="N45">
+        <v>0</v>
+      </c>
+      <c r="O45">
+        <v>0</v>
+      </c>
+      <c r="P45" t="s">
         <v>60</v>
-      </c>
-      <c r="O45" t="s">
-        <v>60</v>
-      </c>
-      <c r="P45" t="s">
-        <v>61</v>
       </c>
       <c r="Q45">
         <v>1999</v>
@@ -3052,19 +3049,19 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B46" t="s">
         <v>57</v>
       </c>
       <c r="C46" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D46" s="1">
         <v>45266</v>
       </c>
       <c r="E46" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F46">
         <v>1</v>
@@ -3090,14 +3087,14 @@
       <c r="M46">
         <v>0</v>
       </c>
-      <c r="N46" t="s">
+      <c r="N46">
+        <v>0</v>
+      </c>
+      <c r="O46">
+        <v>0</v>
+      </c>
+      <c r="P46" t="s">
         <v>60</v>
-      </c>
-      <c r="O46" t="s">
-        <v>60</v>
-      </c>
-      <c r="P46" t="s">
-        <v>61</v>
       </c>
       <c r="Q46">
         <v>1999</v>
@@ -3105,19 +3102,19 @@
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B47" t="s">
         <v>57</v>
       </c>
       <c r="C47" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D47" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E47" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F47">
         <v>1</v>
@@ -3143,16 +3140,69 @@
       <c r="M47">
         <v>0</v>
       </c>
-      <c r="N47" t="s">
+      <c r="N47">
+        <v>0</v>
+      </c>
+      <c r="O47">
+        <v>0</v>
+      </c>
+      <c r="P47" t="s">
         <v>60</v>
       </c>
-      <c r="O47" t="s">
+      <c r="Q47">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>77</v>
+      </c>
+      <c r="B48" t="s">
+        <v>57</v>
+      </c>
+      <c r="C48" t="s">
+        <v>73</v>
+      </c>
+      <c r="D48" t="s">
+        <v>78</v>
+      </c>
+      <c r="E48" t="s">
+        <v>61</v>
+      </c>
+      <c r="F48">
+        <v>1</v>
+      </c>
+      <c r="G48">
+        <v>1999</v>
+      </c>
+      <c r="H48" t="s">
+        <v>21</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>0</v>
+      </c>
+      <c r="O48">
+        <v>0</v>
+      </c>
+      <c r="P48" t="s">
         <v>60</v>
       </c>
-      <c r="P47" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q47">
+      <c r="Q48">
         <v>1999</v>
       </c>
     </row>

--- a/data/Laporan/06-19-2023/Laporan.xlsx
+++ b/data/Laporan/06-19-2023/Laporan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROJECT\RPA\SoftwareIntegrationEcommerce\data\Laporan\06-19-2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{358EED8D-CCE9-4D67-BC97-5B3D1BA5DFA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16BB4DAE-6CD3-474B-BF9B-B4F9B0F85CA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="77">
   <si>
     <t>no_invoice</t>
   </si>
@@ -251,12 +251,6 @@
   </si>
   <si>
     <t>INV/20230612/MPL/3275330293</t>
-  </si>
-  <si>
-    <t>INV/20230615/MPL/3275330293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15-06-2023 </t>
   </si>
 </sst>
 </file>
@@ -635,7 +629,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{608A1F2F-CF5B-4B87-BA46-BD17BC1DC7C1}">
-  <dimension ref="A1:Q48"/>
+  <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
@@ -3100,112 +3094,6 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>77</v>
-      </c>
-      <c r="B47" t="s">
-        <v>57</v>
-      </c>
-      <c r="C47" t="s">
-        <v>73</v>
-      </c>
-      <c r="D47" t="s">
-        <v>78</v>
-      </c>
-      <c r="E47" t="s">
-        <v>61</v>
-      </c>
-      <c r="F47">
-        <v>1</v>
-      </c>
-      <c r="G47">
-        <v>1999</v>
-      </c>
-      <c r="H47" t="s">
-        <v>21</v>
-      </c>
-      <c r="I47">
-        <v>0</v>
-      </c>
-      <c r="J47">
-        <v>0</v>
-      </c>
-      <c r="K47">
-        <v>0</v>
-      </c>
-      <c r="L47">
-        <v>0</v>
-      </c>
-      <c r="M47">
-        <v>0</v>
-      </c>
-      <c r="N47">
-        <v>0</v>
-      </c>
-      <c r="O47">
-        <v>0</v>
-      </c>
-      <c r="P47" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q47">
-        <v>1999</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>77</v>
-      </c>
-      <c r="B48" t="s">
-        <v>57</v>
-      </c>
-      <c r="C48" t="s">
-        <v>73</v>
-      </c>
-      <c r="D48" t="s">
-        <v>78</v>
-      </c>
-      <c r="E48" t="s">
-        <v>61</v>
-      </c>
-      <c r="F48">
-        <v>1</v>
-      </c>
-      <c r="G48">
-        <v>1999</v>
-      </c>
-      <c r="H48" t="s">
-        <v>21</v>
-      </c>
-      <c r="I48">
-        <v>0</v>
-      </c>
-      <c r="J48">
-        <v>0</v>
-      </c>
-      <c r="K48">
-        <v>0</v>
-      </c>
-      <c r="L48">
-        <v>0</v>
-      </c>
-      <c r="M48">
-        <v>0</v>
-      </c>
-      <c r="N48">
-        <v>0</v>
-      </c>
-      <c r="O48">
-        <v>0</v>
-      </c>
-      <c r="P48" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q48">
-        <v>1999</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
